--- a/Semester 1/ExpD/Grundlagen/datDS23t.xlsx
+++ b/Semester 1/ExpD/Grundlagen/datDS23t.xlsx
@@ -1,259 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634fce5cf199cdfd/Dokumente/GitHub/ZHAW/Semester 1/ExpD/Grundlagen/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_BE66F13F1DC16F9A42C5274E5F7A0E8E5A9DB6AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82A38F37-6264-4EE9-9CA4-82A1DBDB0FA0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$O$26</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
-  <si>
-    <t xml:space="preserve">alter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geschlecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haarfarbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">augenfarbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koerpergroesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handspanne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geschwister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postleitzahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schlafzimmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ausbildung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programmierkenntnisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schuhgroesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistische_vorkenntnisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anreisezeit_an_die_zhaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weiblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">braun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gymnasium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicht vorhanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schwarz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (Parterre)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mittel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">männlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grün/Braun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeichner Ing.-Bau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektroinstallateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatiker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braun / Grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektroniker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applikationsentwickler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blaugrau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwarz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemtechnikerin EFZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantonsschule Wettingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blau-grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applikationsentwicklung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstrukteur</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>haarfarbe</t>
+  </si>
+  <si>
+    <t>augenfarbe</t>
+  </si>
+  <si>
+    <t>koerpergroesse</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>handspanne</t>
+  </si>
+  <si>
+    <t>geschwister</t>
+  </si>
+  <si>
+    <t>postleitzahl</t>
+  </si>
+  <si>
+    <t>schlafzimmer</t>
+  </si>
+  <si>
+    <t>ausbildung</t>
+  </si>
+  <si>
+    <t>programmierkenntnisse</t>
+  </si>
+  <si>
+    <t>schuhgroesse</t>
+  </si>
+  <si>
+    <t>statistische_vorkenntnisse</t>
+  </si>
+  <si>
+    <t>anreisezeit_an_die_zhaw</t>
+  </si>
+  <si>
+    <t>weiblich</t>
+  </si>
+  <si>
+    <t>braun</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>8426</t>
+  </si>
+  <si>
+    <t>2. Stock</t>
+  </si>
+  <si>
+    <t>Gymnasium</t>
+  </si>
+  <si>
+    <t>nicht vorhanden</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>schwarz</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>8404</t>
+  </si>
+  <si>
+    <t>0 (Parterre)</t>
+  </si>
+  <si>
+    <t>gering</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>blond</t>
+  </si>
+  <si>
+    <t>Grün/Braun</t>
+  </si>
+  <si>
+    <t>8004</t>
+  </si>
+  <si>
+    <t>3. Stock</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>Grün</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>4. Stock</t>
+  </si>
+  <si>
+    <t>1. Stock</t>
+  </si>
+  <si>
+    <t>8708</t>
+  </si>
+  <si>
+    <t>Zeichner Ing.-Bau</t>
+  </si>
+  <si>
+    <t>8304</t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t>8408</t>
+  </si>
+  <si>
+    <t>Elektroinstallateur</t>
+  </si>
+  <si>
+    <t>Blau</t>
+  </si>
+  <si>
+    <t>8610</t>
+  </si>
+  <si>
+    <t>Informatiker</t>
+  </si>
+  <si>
+    <t>9444</t>
+  </si>
+  <si>
+    <t>8048</t>
+  </si>
+  <si>
+    <t>6. Stock</t>
+  </si>
+  <si>
+    <t>Braun / Grün</t>
+  </si>
+  <si>
+    <t>8707</t>
+  </si>
+  <si>
+    <t>Elektroniker</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>8117</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>grün</t>
+  </si>
+  <si>
+    <t>8413</t>
+  </si>
+  <si>
+    <t>fms</t>
+  </si>
+  <si>
+    <t>9535</t>
+  </si>
+  <si>
+    <t>Applikationsentwickler</t>
+  </si>
+  <si>
+    <t>8400</t>
+  </si>
+  <si>
+    <t>Blaugrau</t>
+  </si>
+  <si>
+    <t>8038</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>8115</t>
+  </si>
+  <si>
+    <t>Systemtechnikerin EFZ</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>Kantonsschule Wettingen</t>
+  </si>
+  <si>
+    <t>9016</t>
+  </si>
+  <si>
+    <t>8192</t>
+  </si>
+  <si>
+    <t>blau-grün</t>
+  </si>
+  <si>
+    <t>8637</t>
+  </si>
+  <si>
+    <t>8623</t>
+  </si>
+  <si>
+    <t>Applikationsentwicklung</t>
+  </si>
+  <si>
+    <t>8185</t>
+  </si>
+  <si>
+    <t>Konstrukteur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,6 +299,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -570,14 +589,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +650,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>44</v>
       </c>
       <c r="B2" t="s">
@@ -637,16 +663,16 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>173</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -661,18 +687,18 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>39</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>40</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>37</v>
       </c>
       <c r="B3" t="s">
@@ -684,14 +710,13 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>165</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
@@ -706,19 +731,19 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>39</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -729,16 +754,16 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>180</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -753,19 +778,19 @@
       <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>30</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -776,16 +801,16 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>185</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
@@ -800,18 +825,18 @@
       <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -823,16 +848,16 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>178</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>21</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
@@ -847,19 +872,19 @@
       <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>42</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>24</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -870,16 +895,16 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>185</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" t="s">
@@ -894,18 +919,18 @@
       <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>46</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>21</v>
       </c>
       <c r="B8" t="s">
@@ -917,16 +942,16 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>175</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -941,19 +966,19 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>38</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>40</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>24</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -964,16 +989,16 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>175</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
@@ -988,19 +1013,19 @@
       <c r="L9" t="s">
         <v>27</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>20</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1011,14 +1036,13 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>178</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10"/>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1030,19 +1054,18 @@
       <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="L10"/>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>42</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
@@ -1054,16 +1077,16 @@
       <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>188</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
@@ -1078,19 +1101,19 @@
       <c r="L11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>44</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>37</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1101,16 +1124,16 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>178</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
@@ -1125,19 +1148,19 @@
       <c r="L12" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>22</v>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -1148,16 +1171,16 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>185</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>22.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -1172,19 +1195,19 @@
       <c r="L13" t="s">
         <v>28</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>44</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>60</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>29</v>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -1195,16 +1218,16 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>180</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
@@ -1219,18 +1242,18 @@
       <c r="L14" t="s">
         <v>27</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>70</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>35</v>
       </c>
       <c r="B15" t="s">
@@ -1242,16 +1265,16 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>166</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
@@ -1260,22 +1283,21 @@
       <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="K15"/>
       <c r="L15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>40</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>23</v>
       </c>
       <c r="B16" t="s">
@@ -1287,16 +1309,16 @@
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>163</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>19.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
@@ -1311,19 +1333,19 @@
       <c r="L16" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>40</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>30</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>21</v>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1334,16 +1356,16 @@
       <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>172</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>18</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
@@ -1358,50 +1380,42 @@
       <c r="L17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>42</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18"/>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18"/>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>62</v>
       </c>
-      <c r="J18"/>
-      <c r="K18"/>
       <c r="L18" t="s">
         <v>27</v>
       </c>
-      <c r="M18"/>
       <c r="N18" t="s">
         <v>22</v>
       </c>
-      <c r="O18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>31</v>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1412,16 +1426,16 @@
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>179</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>9</v>
       </c>
-      <c r="G19" t="n">
-        <v>22</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
@@ -1430,22 +1444,21 @@
       <c r="J19" t="s">
         <v>33</v>
       </c>
-      <c r="K19"/>
       <c r="L19" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>44</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>45</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -1457,16 +1470,16 @@
       <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>165</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>19</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
@@ -1481,18 +1494,18 @@
       <c r="L20" t="s">
         <v>27</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>38</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>55</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -1504,16 +1517,16 @@
       <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>175</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>17</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
@@ -1528,19 +1541,19 @@
       <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>40</v>
       </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>55</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>26</v>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1551,14 +1564,13 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>182</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22"/>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
@@ -1573,19 +1585,19 @@
       <c r="L22" t="s">
         <v>28</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>43</v>
       </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>60</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1596,16 +1608,16 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>180</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>21</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
@@ -1620,18 +1632,18 @@
       <c r="L23" t="s">
         <v>28</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>42</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>31</v>
       </c>
       <c r="B24" t="s">
@@ -1643,16 +1655,16 @@
       <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>193</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>7</v>
       </c>
-      <c r="G24" t="n">
-        <v>22</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
@@ -1667,18 +1679,18 @@
       <c r="L24" t="s">
         <v>27</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>45</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>80</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -1690,16 +1702,16 @@
       <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>167</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>20</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
@@ -1714,19 +1726,19 @@
       <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>38</v>
       </c>
       <c r="N25" t="s">
         <v>22</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>40</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>23</v>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1737,16 +1749,16 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>187</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>21</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
@@ -1761,18 +1773,28 @@
       <c r="L26" t="s">
         <v>21</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>44</v>
       </c>
       <c r="N26" t="s">
         <v>22</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O26" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="männlich"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>